--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ntf3</t>
   </si>
   <si>
     <t>Ntrk2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.06891466812013</v>
+        <v>3.998902333333333</v>
       </c>
       <c r="H2">
-        <v>3.06891466812013</v>
+        <v>11.996707</v>
       </c>
       <c r="I2">
-        <v>0.4349206903533817</v>
+        <v>0.4953291676276626</v>
       </c>
       <c r="J2">
-        <v>0.4349206903533817</v>
+        <v>0.4953291676276626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.547873698320962</v>
+        <v>0.5901906666666666</v>
       </c>
       <c r="N2">
-        <v>0.547873698320962</v>
+        <v>1.770572</v>
       </c>
       <c r="O2">
-        <v>0.04818352830009375</v>
+        <v>0.05042357210835777</v>
       </c>
       <c r="P2">
-        <v>0.04818352830009375</v>
+        <v>0.05042357210835777</v>
       </c>
       <c r="Q2">
-        <v>1.681377629054423</v>
+        <v>2.360114834044889</v>
       </c>
       <c r="R2">
-        <v>1.681377629054423</v>
+        <v>21.241033506404</v>
       </c>
       <c r="S2">
-        <v>0.02095601339193848</v>
+        <v>0.02497626600124628</v>
       </c>
       <c r="T2">
-        <v>0.02095601339193848</v>
+        <v>0.02497626600124628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.06891466812013</v>
+        <v>3.998902333333333</v>
       </c>
       <c r="H3">
-        <v>3.06891466812013</v>
+        <v>11.996707</v>
       </c>
       <c r="I3">
-        <v>0.4349206903533817</v>
+        <v>0.4953291676276626</v>
       </c>
       <c r="J3">
-        <v>0.4349206903533817</v>
+        <v>0.4953291676276626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5128202604234</v>
+        <v>10.74310933333333</v>
       </c>
       <c r="N3">
-        <v>10.5128202604234</v>
+        <v>32.229328</v>
       </c>
       <c r="O3">
-        <v>0.924564866107443</v>
+        <v>0.9178490591808264</v>
       </c>
       <c r="P3">
-        <v>0.924564866107443</v>
+        <v>0.9178490591808263</v>
       </c>
       <c r="Q3">
-        <v>32.26294830052385</v>
+        <v>42.96064498032177</v>
       </c>
       <c r="R3">
-        <v>32.26294830052385</v>
+        <v>386.6458048228959</v>
       </c>
       <c r="S3">
-        <v>0.402112389843931</v>
+        <v>0.454637410491872</v>
       </c>
       <c r="T3">
-        <v>0.402112389843931</v>
+        <v>0.4546374104918719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.06891466812013</v>
+        <v>3.998902333333333</v>
       </c>
       <c r="H4">
-        <v>3.06891466812013</v>
+        <v>11.996707</v>
       </c>
       <c r="I4">
-        <v>0.4349206903533817</v>
+        <v>0.4953291676276626</v>
       </c>
       <c r="J4">
-        <v>0.4349206903533817</v>
+        <v>0.4953291676276626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3098660157915</v>
+        <v>0.371358</v>
       </c>
       <c r="N4">
-        <v>0.3098660157915</v>
+        <v>1.114074</v>
       </c>
       <c r="O4">
-        <v>0.02725160559246323</v>
+        <v>0.03172736871081582</v>
       </c>
       <c r="P4">
-        <v>0.02725160559246323</v>
+        <v>0.03172736871081581</v>
       </c>
       <c r="Q4">
-        <v>0.9509523610144782</v>
+        <v>1.485024372702</v>
       </c>
       <c r="R4">
-        <v>0.9509523610144782</v>
+        <v>13.365219354318</v>
       </c>
       <c r="S4">
-        <v>0.01185228711751218</v>
+        <v>0.01571549113454435</v>
       </c>
       <c r="T4">
-        <v>0.01185228711751218</v>
+        <v>0.01571549113454435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.98734808550186</v>
+        <v>3.99311</v>
       </c>
       <c r="H5">
-        <v>3.98734808550186</v>
+        <v>11.97933</v>
       </c>
       <c r="I5">
-        <v>0.5650793096466183</v>
+        <v>0.4946116928284643</v>
       </c>
       <c r="J5">
-        <v>0.5650793096466183</v>
+        <v>0.4946116928284644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.547873698320962</v>
+        <v>0.5901906666666666</v>
       </c>
       <c r="N5">
-        <v>0.547873698320962</v>
+        <v>1.770572</v>
       </c>
       <c r="O5">
-        <v>0.04818352830009375</v>
+        <v>0.05042357210835777</v>
       </c>
       <c r="P5">
-        <v>0.04818352830009375</v>
+        <v>0.05042357210835777</v>
       </c>
       <c r="Q5">
-        <v>2.184563142096911</v>
+        <v>2.356696252973333</v>
       </c>
       <c r="R5">
-        <v>2.184563142096911</v>
+        <v>21.21026627676</v>
       </c>
       <c r="S5">
-        <v>0.02722751490815527</v>
+        <v>0.02494008835897298</v>
       </c>
       <c r="T5">
-        <v>0.02722751490815527</v>
+        <v>0.02494008835897298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.98734808550186</v>
+        <v>3.99311</v>
       </c>
       <c r="H6">
-        <v>3.98734808550186</v>
+        <v>11.97933</v>
       </c>
       <c r="I6">
-        <v>0.5650793096466183</v>
+        <v>0.4946116928284643</v>
       </c>
       <c r="J6">
-        <v>0.5650793096466183</v>
+        <v>0.4946116928284644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.5128202604234</v>
+        <v>10.74310933333333</v>
       </c>
       <c r="N6">
-        <v>10.5128202604234</v>
+        <v>32.229328</v>
       </c>
       <c r="O6">
-        <v>0.924564866107443</v>
+        <v>0.9178490591808264</v>
       </c>
       <c r="P6">
-        <v>0.924564866107443</v>
+        <v>0.9178490591808263</v>
       </c>
       <c r="Q6">
-        <v>41.91827373862441</v>
+        <v>42.89841731002666</v>
       </c>
       <c r="R6">
-        <v>41.91827373862441</v>
+        <v>386.08575579024</v>
       </c>
       <c r="S6">
-        <v>0.522452476263512</v>
+        <v>0.4539788769224419</v>
       </c>
       <c r="T6">
-        <v>0.522452476263512</v>
+        <v>0.4539788769224419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.99311</v>
+      </c>
+      <c r="H7">
+        <v>11.97933</v>
+      </c>
+      <c r="I7">
+        <v>0.4946116928284643</v>
+      </c>
+      <c r="J7">
+        <v>0.4946116928284644</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.371358</v>
+      </c>
+      <c r="N7">
+        <v>1.114074</v>
+      </c>
+      <c r="O7">
+        <v>0.03172736871081582</v>
+      </c>
+      <c r="P7">
+        <v>0.03172736871081581</v>
+      </c>
+      <c r="Q7">
+        <v>1.48287334338</v>
+      </c>
+      <c r="R7">
+        <v>13.34586009042</v>
+      </c>
+      <c r="S7">
+        <v>0.01569272754704946</v>
+      </c>
+      <c r="T7">
+        <v>0.01569272754704946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.98734808550186</v>
-      </c>
-      <c r="H7">
-        <v>3.98734808550186</v>
-      </c>
-      <c r="I7">
-        <v>0.5650793096466183</v>
-      </c>
-      <c r="J7">
-        <v>0.5650793096466183</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3098660157915</v>
-      </c>
-      <c r="N7">
-        <v>0.3098660157915</v>
-      </c>
-      <c r="O7">
-        <v>0.02725160559246323</v>
-      </c>
-      <c r="P7">
-        <v>0.02725160559246323</v>
-      </c>
-      <c r="Q7">
-        <v>1.235543664828327</v>
-      </c>
-      <c r="R7">
-        <v>1.235543664828327</v>
-      </c>
-      <c r="S7">
-        <v>0.01539931847495104</v>
-      </c>
-      <c r="T7">
-        <v>0.01539931847495104</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08120966666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.243629</v>
+      </c>
+      <c r="I8">
+        <v>0.01005913954387315</v>
+      </c>
+      <c r="J8">
+        <v>0.01005913954387315</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5901906666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.770572</v>
+      </c>
+      <c r="O8">
+        <v>0.05042357210835777</v>
+      </c>
+      <c r="P8">
+        <v>0.05042357210835777</v>
+      </c>
+      <c r="Q8">
+        <v>0.04792918730977778</v>
+      </c>
+      <c r="R8">
+        <v>0.431362685788</v>
+      </c>
+      <c r="S8">
+        <v>0.0005072177481385209</v>
+      </c>
+      <c r="T8">
+        <v>0.0005072177481385209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08120966666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.243629</v>
+      </c>
+      <c r="I9">
+        <v>0.01005913954387315</v>
+      </c>
+      <c r="J9">
+        <v>0.01005913954387315</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.74310933333333</v>
+      </c>
+      <c r="N9">
+        <v>32.229328</v>
+      </c>
+      <c r="O9">
+        <v>0.9178490591808264</v>
+      </c>
+      <c r="P9">
+        <v>0.9178490591808263</v>
+      </c>
+      <c r="Q9">
+        <v>0.8724443279235554</v>
+      </c>
+      <c r="R9">
+        <v>7.851998951311999</v>
+      </c>
+      <c r="S9">
+        <v>0.009232771766512618</v>
+      </c>
+      <c r="T9">
+        <v>0.009232771766512616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08120966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.243629</v>
+      </c>
+      <c r="I10">
+        <v>0.01005913954387315</v>
+      </c>
+      <c r="J10">
+        <v>0.01005913954387315</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.371358</v>
+      </c>
+      <c r="N10">
+        <v>1.114074</v>
+      </c>
+      <c r="O10">
+        <v>0.03172736871081582</v>
+      </c>
+      <c r="P10">
+        <v>0.03172736871081581</v>
+      </c>
+      <c r="Q10">
+        <v>0.030157859394</v>
+      </c>
+      <c r="R10">
+        <v>0.271420734546</v>
+      </c>
+      <c r="S10">
+        <v>0.0003191500292220111</v>
+      </c>
+      <c r="T10">
+        <v>0.000319150029222011</v>
       </c>
     </row>
   </sheetData>
